--- a/Contact_Approval_Auto_pckg.xlsx
+++ b/Contact_Approval_Auto_pckg.xlsx
@@ -252,13 +252,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J15" totalsRowShown="0">
-  <autoFilter ref="A1:J15">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J15"/>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -562,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -652,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -666,7 +660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -680,7 +674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -694,7 +688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -731,7 +725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -742,7 +736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -753,7 +747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -764,7 +758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>30</v>
       </c>
@@ -775,7 +769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>33</v>
       </c>
@@ -786,7 +780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>49</v>
       </c>
@@ -797,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>52</v>
       </c>
